--- a/Readme.xlsx
+++ b/Readme.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Компонент Заявки" sheetId="1" r:id="rId1"/>
+    <sheet name="Компонент Планировщик" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Отредактировать View  пользователей в админке</t>
   </si>
@@ -389,7 +390,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -478,9 +479,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F17:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="62.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27.6" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
@@ -488,7 +583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
